--- a/final project/results_kinematic_RRT/map1_resultsRRT.xlsx
+++ b/final project/results_kinematic_RRT/map1_resultsRRT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\ELEC-844\final project\results_kinematic_RRT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DD7477-F749-40B2-993E-C37F93EAA5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FE6696-A28F-47B8-96BF-EB04747DADBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="6840" windowWidth="15410" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="8">
   <si>
     <t>Trial</t>
   </si>
@@ -129,7 +129,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,26 +452,26 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>23049</v>
-      </c>
-      <c r="C2">
-        <v>47.508653879165649</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>AVERAGE(D2:D501)</f>
-        <v>0.97199999999999998</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G2">
         <f>MEDIAN(C2:C501)</f>
-        <v>2.3711414337158203</v>
+        <v>1.6563513278961182</v>
       </c>
       <c r="H2">
         <f>MEDIAN(B2:B501)</f>
-        <v>2224.5</v>
+        <v>2190.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -482,7 +482,7 @@
         <v>2624</v>
       </c>
       <c r="C3">
-        <v>1.825011730194092</v>
+        <v>1.811681747436523</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -496,7 +496,7 @@
         <v>1477</v>
       </c>
       <c r="C4">
-        <v>0.96466183662414551</v>
+        <v>0.95983004570007324</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -510,7 +510,7 @@
         <v>11403</v>
       </c>
       <c r="C5">
-        <v>16.065804481506351</v>
+        <v>14.954288005828859</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -524,7 +524,7 @@
         <v>4826</v>
       </c>
       <c r="C6">
-        <v>4.5439395904541016</v>
+        <v>4.3996624946594238</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -538,7 +538,7 @@
         <v>534</v>
       </c>
       <c r="C7">
-        <v>0.38966584205627441</v>
+        <v>0.35546112060546881</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -552,7 +552,7 @@
         <v>4854</v>
       </c>
       <c r="C8">
-        <v>5.3509166240692139</v>
+        <v>4.3935964107513428</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -566,7 +566,7 @@
         <v>4255</v>
       </c>
       <c r="C9">
-        <v>4.0233197212219238</v>
+        <v>3.6235325336456299</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -580,7 +580,7 @@
         <v>14134</v>
       </c>
       <c r="C10">
-        <v>24.039470434188839</v>
+        <v>22.596289157867432</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -594,7 +594,7 @@
         <v>1256</v>
       </c>
       <c r="C11">
-        <v>1.1233537197113039</v>
+        <v>0.82198333740234375</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -608,7 +608,7 @@
         <v>2193</v>
       </c>
       <c r="C12">
-        <v>2.1219930648803711</v>
+        <v>1.6356315612792971</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -622,7 +622,7 @@
         <v>1855</v>
       </c>
       <c r="C13">
-        <v>1.6009361743927</v>
+        <v>1.2882659435272219</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -636,7 +636,7 @@
         <v>1103</v>
       </c>
       <c r="C14">
-        <v>0.81628155708312988</v>
+        <v>0.68388581275939941</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -650,7 +650,7 @@
         <v>1102</v>
       </c>
       <c r="C15">
-        <v>0.79397010803222656</v>
+        <v>0.73834586143493652</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -664,7 +664,7 @@
         <v>14770</v>
       </c>
       <c r="C16">
-        <v>31.714385032653809</v>
+        <v>24.426676750183109</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>1121</v>
       </c>
       <c r="C17">
-        <v>1.157398462295532</v>
+        <v>0.75849246978759766</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>4696</v>
       </c>
       <c r="C18">
-        <v>6.1963953971862793</v>
+        <v>4.2337872982025146</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>7424</v>
       </c>
       <c r="C19">
-        <v>12.2085235118866</v>
+        <v>8.5856060981750488</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>1170</v>
       </c>
       <c r="C20">
-        <v>1.3395369052886961</v>
+        <v>0.76163029670715332</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -734,7 +734,7 @@
         <v>4024</v>
       </c>
       <c r="C21">
-        <v>5.4042387008666992</v>
+        <v>3.481141090393066</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>1169</v>
       </c>
       <c r="C22">
-        <v>1.1813728809356689</v>
+        <v>0.79794144630432129</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -762,7 +762,7 @@
         <v>5339</v>
       </c>
       <c r="C23">
-        <v>7.6512954235076904</v>
+        <v>5.3854684829711914</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>1639</v>
       </c>
       <c r="C24">
-        <v>1.5854334831237791</v>
+        <v>1.113259077072144</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -790,7 +790,7 @@
         <v>662</v>
       </c>
       <c r="C25">
-        <v>0.64443707466125488</v>
+        <v>0.40495634078979492</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -804,7 +804,7 @@
         <v>1643</v>
       </c>
       <c r="C26">
-        <v>1.7764449119567871</v>
+        <v>1.1116495132446289</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>5545</v>
       </c>
       <c r="C27">
-        <v>7.9887669086456299</v>
+        <v>5.7155046463012704</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -832,7 +832,7 @@
         <v>9269</v>
       </c>
       <c r="C28">
-        <v>16.52599930763245</v>
+        <v>11.394129276275629</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>9982</v>
       </c>
       <c r="C29">
-        <v>19.044209480285641</v>
+        <v>13.477873563766479</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -860,7 +860,7 @@
         <v>6024</v>
       </c>
       <c r="C30">
-        <v>9.1602156162261963</v>
+        <v>6.01220703125</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1073</v>
       </c>
       <c r="C31">
-        <v>1.103172779083252</v>
+        <v>0.75138545036315918</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>2078</v>
       </c>
       <c r="C32">
-        <v>2.438807487487793</v>
+        <v>1.681938171386719</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -902,7 +902,7 @@
         <v>7194</v>
       </c>
       <c r="C33">
-        <v>11.72497129440308</v>
+        <v>8.0377717018127441</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>1083</v>
       </c>
       <c r="C35">
-        <v>1.076804637908936</v>
+        <v>0.74586772918701172</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>2502</v>
       </c>
       <c r="C36">
-        <v>2.823693990707397</v>
+        <v>1.869620561599731</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -958,7 +958,7 @@
         <v>2023</v>
       </c>
       <c r="C37">
-        <v>2.1902062892913818</v>
+        <v>1.423681259155273</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>6741</v>
       </c>
       <c r="C38">
-        <v>10.127262115478519</v>
+        <v>7.3750495910644531</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>2181</v>
       </c>
       <c r="C39">
-        <v>2.446750164031982</v>
+        <v>1.676622867584229</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         <v>831</v>
       </c>
       <c r="C40">
-        <v>0.79239916801452637</v>
+        <v>0.55864953994750977</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1014,7 +1014,7 @@
         <v>1516</v>
       </c>
       <c r="C41">
-        <v>1.834366083145142</v>
+        <v>1.0573816299438481</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1028,7 +1028,7 @@
         <v>1385</v>
       </c>
       <c r="C42">
-        <v>1.6440877914428711</v>
+        <v>1.035722494125366</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>13479</v>
       </c>
       <c r="C43">
-        <v>30.1846022605896</v>
+        <v>21.149704694747921</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1056,7 +1056,7 @@
         <v>1814</v>
       </c>
       <c r="C44">
-        <v>1.855649471282959</v>
+        <v>1.2718861103057859</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1070,7 +1070,7 @@
         <v>1245</v>
       </c>
       <c r="C45">
-        <v>1.2188501358032231</v>
+        <v>0.84731841087341309</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1084,7 +1084,7 @@
         <v>1169</v>
       </c>
       <c r="C46">
-        <v>1.1659271717071531</v>
+        <v>0.8050081729888916</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1094,14 +1094,14 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>19189</v>
-      </c>
-      <c r="C47">
-        <v>55.212185382843018</v>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1112,7 +1112,7 @@
         <v>2150</v>
       </c>
       <c r="C48">
-        <v>2.7436754703521729</v>
+        <v>1.619980573654175</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1126,7 +1126,7 @@
         <v>977</v>
       </c>
       <c r="C49">
-        <v>0.97290778160095215</v>
+        <v>0.63847088813781738</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1140,7 +1140,7 @@
         <v>2476</v>
       </c>
       <c r="C50">
-        <v>3.0441148281097412</v>
+        <v>1.876170873641968</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1154,7 +1154,7 @@
         <v>1091</v>
       </c>
       <c r="C51">
-        <v>1.1525359153747561</v>
+        <v>0.71672272682189941</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1168,7 +1168,7 @@
         <v>4806</v>
       </c>
       <c r="C52">
-        <v>6.3204500675201416</v>
+        <v>4.4902360439300537</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1196,7 +1196,7 @@
         <v>1501</v>
       </c>
       <c r="C54">
-        <v>1.5284931659698491</v>
+        <v>1.0770914554595949</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1210,7 +1210,7 @@
         <v>4193</v>
       </c>
       <c r="C55">
-        <v>5.438934326171875</v>
+        <v>3.678458452224731</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1224,7 +1224,7 @@
         <v>2253</v>
       </c>
       <c r="C56">
-        <v>2.3782024383544922</v>
+        <v>1.7098066806793211</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1238,7 +1238,7 @@
         <v>2039</v>
       </c>
       <c r="C57">
-        <v>2.207129955291748</v>
+        <v>1.468409538269043</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>1795</v>
       </c>
       <c r="C58">
-        <v>1.926928758621216</v>
+        <v>1.2982521057128911</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>1146</v>
       </c>
       <c r="C59">
-        <v>0.99994921684265137</v>
+        <v>0.69790959358215332</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1280,7 +1280,7 @@
         <v>4873</v>
       </c>
       <c r="C60">
-        <v>6.4364051818847656</v>
+        <v>4.5000841617584229</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1294,7 +1294,7 @@
         <v>2138</v>
       </c>
       <c r="C61">
-        <v>2.287901639938354</v>
+        <v>1.677682161331177</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1308,7 +1308,7 @@
         <v>2342</v>
       </c>
       <c r="C62">
-        <v>2.5201301574707031</v>
+        <v>1.8295941352844241</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>2233</v>
       </c>
       <c r="C63">
-        <v>2.428996086120605</v>
+        <v>1.7162923812866211</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>1290</v>
       </c>
       <c r="C64">
-        <v>1.3467476367950439</v>
+        <v>0.93838977813720703</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1350,7 +1350,7 @@
         <v>1859</v>
       </c>
       <c r="C65">
-        <v>2.0753440856933589</v>
+        <v>1.3993115425109861</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1364,7 +1364,7 @@
         <v>6442</v>
       </c>
       <c r="C66">
-        <v>9.4919333457946777</v>
+        <v>7.0020022392272949</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1378,7 +1378,7 @@
         <v>1738</v>
       </c>
       <c r="C67">
-        <v>1.6460986137390139</v>
+        <v>1.212149381637573</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1406,7 +1406,7 @@
         <v>1249</v>
       </c>
       <c r="C69">
-        <v>1.268191814422607</v>
+        <v>0.81008124351501465</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>1202</v>
       </c>
       <c r="C70">
-        <v>1.149992704391479</v>
+        <v>0.78900957107543945</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1434,7 +1434,7 @@
         <v>1710</v>
       </c>
       <c r="C71">
-        <v>2.09934401512146</v>
+        <v>1.139925003051758</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1448,7 +1448,7 @@
         <v>4184</v>
       </c>
       <c r="C72">
-        <v>5.7924196720123291</v>
+        <v>3.823790550231934</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1462,7 +1462,7 @@
         <v>2698</v>
       </c>
       <c r="C73">
-        <v>3.1628396511077881</v>
+        <v>2.119453907012939</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1476,7 +1476,7 @@
         <v>2072</v>
       </c>
       <c r="C74">
-        <v>2.430263996124268</v>
+        <v>1.5613052845001221</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -1490,7 +1490,7 @@
         <v>14658</v>
       </c>
       <c r="C75">
-        <v>34.292923212051392</v>
+        <v>25.501149415969849</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -1504,7 +1504,7 @@
         <v>12889</v>
       </c>
       <c r="C76">
-        <v>28.881782054901119</v>
+        <v>20.372875928878781</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>10929</v>
       </c>
       <c r="C77">
-        <v>21.263225793838501</v>
+        <v>14.318699359893801</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -1532,7 +1532,7 @@
         <v>1270</v>
       </c>
       <c r="C78">
-        <v>1.3185949325561519</v>
+        <v>0.91384005546569824</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>2829</v>
       </c>
       <c r="C79">
-        <v>3.0850880146026611</v>
+        <v>2.2020125389099121</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -1560,7 +1560,7 @@
         <v>1856</v>
       </c>
       <c r="C80">
-        <v>1.748124837875366</v>
+        <v>1.312416076660156</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -1574,7 +1574,7 @@
         <v>7824</v>
       </c>
       <c r="C81">
-        <v>12.29514789581299</v>
+        <v>8.9210982322692871</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -1588,7 +1588,7 @@
         <v>2458</v>
       </c>
       <c r="C82">
-        <v>2.6501591205596919</v>
+        <v>1.908746480941772</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -1602,7 +1602,7 @@
         <v>13555</v>
       </c>
       <c r="C83">
-        <v>28.506803750991821</v>
+        <v>23.242541074752811</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -1616,7 +1616,7 @@
         <v>5759</v>
       </c>
       <c r="C84">
-        <v>7.4307136535644531</v>
+        <v>5.9788427352905273</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -1630,7 +1630,7 @@
         <v>1286</v>
       </c>
       <c r="C85">
-        <v>1.1790874004364009</v>
+        <v>1.002388715744019</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -1644,7 +1644,7 @@
         <v>1210</v>
       </c>
       <c r="C86">
-        <v>0.92731046676635742</v>
+        <v>0.9032740592956543</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -1658,7 +1658,7 @@
         <v>1202</v>
       </c>
       <c r="C87">
-        <v>0.9888312816619873</v>
+        <v>1.1373870372772219</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         <v>1360</v>
       </c>
       <c r="C88">
-        <v>1.123239994049072</v>
+        <v>1.0131444931030269</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -1686,7 +1686,7 @@
         <v>1470</v>
       </c>
       <c r="C89">
-        <v>1.339666366577148</v>
+        <v>1.1177952289581301</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -1700,7 +1700,7 @@
         <v>1366</v>
       </c>
       <c r="C90">
-        <v>1.1820418834686279</v>
+        <v>1.0679283142089839</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -1714,7 +1714,7 @@
         <v>1167</v>
       </c>
       <c r="C91">
-        <v>0.94197440147399902</v>
+        <v>0.94231677055358887</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -1728,7 +1728,7 @@
         <v>10366</v>
       </c>
       <c r="C92">
-        <v>18.414899110794071</v>
+        <v>16.278779268264771</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -1742,7 +1742,7 @@
         <v>929</v>
       </c>
       <c r="C93">
-        <v>0.85884404182434082</v>
+        <v>0.82984375953674316</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -1756,7 +1756,7 @@
         <v>11399</v>
       </c>
       <c r="C94">
-        <v>20.521727800369259</v>
+        <v>20.516323328018188</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -1770,7 +1770,7 @@
         <v>4381</v>
       </c>
       <c r="C95">
-        <v>5.0119454860687256</v>
+        <v>4.8983001708984384</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -1784,7 +1784,7 @@
         <v>6164</v>
       </c>
       <c r="C96">
-        <v>7.5985736846923828</v>
+        <v>7.9905791282653809</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -1798,7 +1798,7 @@
         <v>1086</v>
       </c>
       <c r="C97">
-        <v>0.92693662643432617</v>
+        <v>0.97800040245056152</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -1812,7 +1812,7 @@
         <v>901</v>
       </c>
       <c r="C98">
-        <v>0.75123310089111328</v>
+        <v>0.78161406517028809</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -1826,7 +1826,7 @@
         <v>1193</v>
       </c>
       <c r="C99">
-        <v>0.9461514949798584</v>
+        <v>0.98586630821228027</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -1840,7 +1840,7 @@
         <v>9336</v>
       </c>
       <c r="C100">
-        <v>15.091409206390381</v>
+        <v>14.533421993255621</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -1854,7 +1854,7 @@
         <v>1114</v>
       </c>
       <c r="C101">
-        <v>0.94645595550537109</v>
+        <v>0.90745329856872559</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>980</v>
       </c>
       <c r="C102">
-        <v>0.54364323616027832</v>
+        <v>0.55011320114135742</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -1878,14 +1878,14 @@
       <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103">
-        <v>22419</v>
-      </c>
-      <c r="C103">
-        <v>46.076336145401001</v>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -1896,7 +1896,7 @@
         <v>2499</v>
       </c>
       <c r="C104">
-        <v>2.1181125640869141</v>
+        <v>1.697998046875</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -1924,7 +1924,7 @@
         <v>935</v>
       </c>
       <c r="C106">
-        <v>0.73768210411071777</v>
+        <v>0.61215829849243164</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -1938,7 +1938,7 @@
         <v>2067</v>
       </c>
       <c r="C107">
-        <v>1.9932928085327151</v>
+        <v>1.582974910736084</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -1952,7 +1952,7 @@
         <v>3473</v>
       </c>
       <c r="C108">
-        <v>3.6916308403015141</v>
+        <v>2.7962086200714111</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -1966,7 +1966,7 @@
         <v>12223</v>
       </c>
       <c r="C109">
-        <v>24.607569932937619</v>
+        <v>17.97110295295715</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -1980,7 +1980,7 @@
         <v>1309</v>
       </c>
       <c r="C110">
-        <v>1.449507474899292</v>
+        <v>0.91699624061584473</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -1994,7 +1994,7 @@
         <v>812</v>
       </c>
       <c r="C111">
-        <v>0.76699352264404297</v>
+        <v>0.49865078926086431</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         <v>1242</v>
       </c>
       <c r="C112">
-        <v>1.1623983383178711</v>
+        <v>0.80613875389099121</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -2022,7 +2022,7 @@
         <v>15464</v>
       </c>
       <c r="C113">
-        <v>38.276514291763313</v>
+        <v>26.68084812164307</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -2036,7 +2036,7 @@
         <v>1121</v>
       </c>
       <c r="C114">
-        <v>1.041803359985352</v>
+        <v>0.72560715675354004</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -2050,7 +2050,7 @@
         <v>1782</v>
       </c>
       <c r="C115">
-        <v>1.8197677135467529</v>
+        <v>1.2279093265533449</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>2538</v>
       </c>
       <c r="C116">
-        <v>3.114954948425293</v>
+        <v>1.949787378311157</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -2078,7 +2078,7 @@
         <v>1067</v>
       </c>
       <c r="C117">
-        <v>1.1085829734802251</v>
+        <v>0.71732091903686523</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -2092,7 +2092,7 @@
         <v>718</v>
       </c>
       <c r="C118">
-        <v>0.81737399101257324</v>
+        <v>0.4573214054107666</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -2106,7 +2106,7 @@
         <v>2043</v>
       </c>
       <c r="C119">
-        <v>2.1614630222320561</v>
+        <v>1.4685211181640621</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -2120,7 +2120,7 @@
         <v>10810</v>
       </c>
       <c r="C120">
-        <v>21.287907600402828</v>
+        <v>15.279356718063349</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -2134,7 +2134,7 @@
         <v>9158</v>
       </c>
       <c r="C121">
-        <v>16.607170343399051</v>
+        <v>11.44003486633301</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -2162,7 +2162,7 @@
         <v>2587</v>
       </c>
       <c r="C123">
-        <v>3.2420907020568852</v>
+        <v>2.0353343486785889</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -2176,7 +2176,7 @@
         <v>1178</v>
       </c>
       <c r="C124">
-        <v>1.035326480865479</v>
+        <v>0.74274253845214844</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -2190,7 +2190,7 @@
         <v>1434</v>
       </c>
       <c r="C125">
-        <v>1.45451831817627</v>
+        <v>0.99258875846862793</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -2204,7 +2204,7 @@
         <v>4515</v>
       </c>
       <c r="C126">
-        <v>6.1981866359710693</v>
+        <v>4.1425256729125977</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -2218,7 +2218,7 @@
         <v>1461</v>
       </c>
       <c r="C127">
-        <v>1.5574638843536379</v>
+        <v>0.99621129035949707</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -2232,7 +2232,7 @@
         <v>3464</v>
       </c>
       <c r="C128">
-        <v>4.2265431880950928</v>
+        <v>2.9544835090637211</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -2246,7 +2246,7 @@
         <v>3877</v>
       </c>
       <c r="C129">
-        <v>4.9627585411071777</v>
+        <v>3.4240837097167969</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -2260,7 +2260,7 @@
         <v>4931</v>
       </c>
       <c r="C130">
-        <v>6.6830117702484131</v>
+        <v>4.7845454216003418</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -2274,7 +2274,7 @@
         <v>2142</v>
       </c>
       <c r="C131">
-        <v>2.345760822296143</v>
+        <v>1.620882511138916</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -2288,7 +2288,7 @@
         <v>1801</v>
       </c>
       <c r="C132">
-        <v>1.8554642200469971</v>
+        <v>1.2972245216369629</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2302,7 +2302,7 @@
         <v>1944</v>
       </c>
       <c r="C133">
-        <v>1.9893150329589839</v>
+        <v>1.39799976348877</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -2316,7 +2316,7 @@
         <v>9664</v>
       </c>
       <c r="C134">
-        <v>18.28389477729797</v>
+        <v>13.15589308738708</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -2330,7 +2330,7 @@
         <v>1829</v>
       </c>
       <c r="C135">
-        <v>2.0181329250335689</v>
+        <v>1.4044375419616699</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -2344,7 +2344,7 @@
         <v>1828</v>
       </c>
       <c r="C136">
-        <v>1.8492987155914311</v>
+        <v>1.272659540176392</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -2358,7 +2358,7 @@
         <v>1193</v>
       </c>
       <c r="C137">
-        <v>1.2319073677062991</v>
+        <v>0.80666685104370117</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -2372,7 +2372,7 @@
         <v>3457</v>
       </c>
       <c r="C138">
-        <v>4.3630239963531494</v>
+        <v>2.9541172981262211</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -2386,7 +2386,7 @@
         <v>7947</v>
       </c>
       <c r="C139">
-        <v>12.784140586853029</v>
+        <v>8.9311277866363525</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -2400,7 +2400,7 @@
         <v>875</v>
       </c>
       <c r="C140">
-        <v>0.95090675354003906</v>
+        <v>0.58383965492248535</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -2414,7 +2414,7 @@
         <v>899</v>
       </c>
       <c r="C141">
-        <v>0.80686807632446289</v>
+        <v>0.62194681167602539</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -2428,7 +2428,7 @@
         <v>12855</v>
       </c>
       <c r="C142">
-        <v>27.381667375564579</v>
+        <v>19.413076877593991</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -2442,7 +2442,7 @@
         <v>7102</v>
       </c>
       <c r="C143">
-        <v>11.545671701431271</v>
+        <v>7.7823848724365234</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -2456,7 +2456,7 @@
         <v>2208</v>
       </c>
       <c r="C144">
-        <v>2.8266510963439941</v>
+        <v>1.629024982452393</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -2470,7 +2470,7 @@
         <v>1052</v>
       </c>
       <c r="C145">
-        <v>0.97674417495727539</v>
+        <v>0.66859793663024902</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -2484,7 +2484,7 @@
         <v>1730</v>
       </c>
       <c r="C146">
-        <v>1.8835816383361821</v>
+        <v>1.20752477645874</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -2498,7 +2498,7 @@
         <v>4931</v>
       </c>
       <c r="C147">
-        <v>6.6158967018127441</v>
+        <v>4.650766134262085</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -2512,7 +2512,7 @@
         <v>6025</v>
       </c>
       <c r="C148">
-        <v>9.1038327217102051</v>
+        <v>6.1375463008880624</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -2526,7 +2526,7 @@
         <v>831</v>
       </c>
       <c r="C149">
-        <v>0.80317473411560059</v>
+        <v>0.53172421455383301</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -2540,7 +2540,7 @@
         <v>2486</v>
       </c>
       <c r="C150">
-        <v>2.690310955047607</v>
+        <v>1.9662890434265139</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -2554,7 +2554,7 @@
         <v>5589</v>
       </c>
       <c r="C151">
-        <v>7.7155044078826904</v>
+        <v>5.7585136890411377</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>1863</v>
       </c>
       <c r="C152">
-        <v>1.9172923564910891</v>
+        <v>1.396605253219604</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -2582,7 +2582,7 @@
         <v>4520</v>
       </c>
       <c r="C153">
-        <v>5.7452824115753174</v>
+        <v>4.2552850246429443</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -2596,7 +2596,7 @@
         <v>5513</v>
       </c>
       <c r="C154">
-        <v>7.7814085483551034</v>
+        <v>5.8588912487030029</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -2610,7 +2610,7 @@
         <v>6088</v>
       </c>
       <c r="C155">
-        <v>8.9497711658477783</v>
+        <v>6.086686372756958</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -2624,7 +2624,7 @@
         <v>1199</v>
       </c>
       <c r="C156">
-        <v>1.177758932113647</v>
+        <v>0.74261307716369629</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -2638,7 +2638,7 @@
         <v>11643</v>
       </c>
       <c r="C157">
-        <v>23.568291187286381</v>
+        <v>16.398141622543331</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -2652,7 +2652,7 @@
         <v>3263</v>
       </c>
       <c r="C158">
-        <v>3.64118480682373</v>
+        <v>2.7268626689910889</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -2666,7 +2666,7 @@
         <v>1794</v>
       </c>
       <c r="C159">
-        <v>1.9848065376281741</v>
+        <v>1.285317182540894</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -2680,7 +2680,7 @@
         <v>1211</v>
       </c>
       <c r="C160">
-        <v>1.239057302474976</v>
+        <v>0.79471230506896973</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -2694,7 +2694,7 @@
         <v>8966</v>
       </c>
       <c r="C161">
-        <v>15.67837429046631</v>
+        <v>11.106981039047239</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -2708,7 +2708,7 @@
         <v>3081</v>
       </c>
       <c r="C162">
-        <v>3.5499172210693359</v>
+        <v>2.687275886535645</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -2722,7 +2722,7 @@
         <v>2302</v>
       </c>
       <c r="C163">
-        <v>2.347705602645874</v>
+        <v>1.7119238376617429</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -2736,7 +2736,7 @@
         <v>2313</v>
       </c>
       <c r="C164">
-        <v>2.6731054782867432</v>
+        <v>1.90501856803894</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -2750,7 +2750,7 @@
         <v>15514</v>
       </c>
       <c r="C165">
-        <v>36.586689949035637</v>
+        <v>26.980592966079708</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>11191</v>
       </c>
       <c r="C166">
-        <v>21.48298358917236</v>
+        <v>15.55495071411133</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -2778,7 +2778,7 @@
         <v>13058</v>
       </c>
       <c r="C167">
-        <v>27.73448538780212</v>
+        <v>21.222048282623291</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -2792,7 +2792,7 @@
         <v>9708</v>
       </c>
       <c r="C168">
-        <v>18.021380662918091</v>
+        <v>12.70894026756287</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -2806,7 +2806,7 @@
         <v>12116</v>
       </c>
       <c r="C169">
-        <v>25.278813123702999</v>
+        <v>18.104655981063839</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -2820,7 +2820,7 @@
         <v>1769</v>
       </c>
       <c r="C170">
-        <v>1.9670083522796631</v>
+        <v>1.302590131759644</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -2834,7 +2834,7 @@
         <v>1707</v>
       </c>
       <c r="C171">
-        <v>1.8277697563171389</v>
+        <v>1.3093621730804439</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -2848,7 +2848,7 @@
         <v>2835</v>
       </c>
       <c r="C172">
-        <v>3.2085897922515869</v>
+        <v>2.2479968070983891</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>856</v>
       </c>
       <c r="C173">
-        <v>0.82485198974609375</v>
+        <v>0.53520512580871582</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -2876,7 +2876,7 @@
         <v>857</v>
       </c>
       <c r="C174">
-        <v>0.78723025321960449</v>
+        <v>0.51584267616271973</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -2890,7 +2890,7 @@
         <v>1677</v>
       </c>
       <c r="C175">
-        <v>1.860070943832397</v>
+        <v>1.1323845386505129</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -2904,7 +2904,7 @@
         <v>2243</v>
       </c>
       <c r="C176">
-        <v>2.3137845993041992</v>
+        <v>1.5496537685394289</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -2918,7 +2918,7 @@
         <v>5836</v>
       </c>
       <c r="C177">
-        <v>8.2935531139373779</v>
+        <v>6.0026204586029053</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -2932,7 +2932,7 @@
         <v>6352</v>
       </c>
       <c r="C178">
-        <v>10.000130176544189</v>
+        <v>7.1928613185882568</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -2946,7 +2946,7 @@
         <v>6382</v>
       </c>
       <c r="C179">
-        <v>9.4917356967926025</v>
+        <v>7.2546002864837646</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -2988,7 +2988,7 @@
         <v>10976</v>
       </c>
       <c r="C182">
-        <v>18.509225606918331</v>
+        <v>18.898951530456539</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -3002,7 +3002,7 @@
         <v>1089</v>
       </c>
       <c r="C183">
-        <v>0.87475228309631348</v>
+        <v>0.93296647071838379</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -3016,7 +3016,7 @@
         <v>3938</v>
       </c>
       <c r="C184">
-        <v>4.1004316806793213</v>
+        <v>4.2937009334564209</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -3030,7 +3030,7 @@
         <v>3267</v>
       </c>
       <c r="C185">
-        <v>3.3494174480438228</v>
+        <v>3.336700439453125</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -3044,7 +3044,7 @@
         <v>1482</v>
       </c>
       <c r="C186">
-        <v>1.233659505844116</v>
+        <v>1.334592342376709</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -3058,7 +3058,7 @@
         <v>6895</v>
       </c>
       <c r="C187">
-        <v>8.7104995250701904</v>
+        <v>8.9399206638336182</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>1624</v>
       </c>
       <c r="C188">
-        <v>1.4282364845275879</v>
+        <v>1.455737829208374</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -3086,7 +3086,7 @@
         <v>3572</v>
       </c>
       <c r="C189">
-        <v>3.6530249118804932</v>
+        <v>3.6626801490783691</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -3100,7 +3100,7 @@
         <v>6567</v>
       </c>
       <c r="C190">
-        <v>8.2584457397460938</v>
+        <v>8.4185783863067627</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -3114,7 +3114,7 @@
         <v>6576</v>
       </c>
       <c r="C191">
-        <v>8.5318236351013184</v>
+        <v>8.1872868537902832</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -3128,7 +3128,7 @@
         <v>1581</v>
       </c>
       <c r="C192">
-        <v>1.471713781356812</v>
+        <v>1.186545610427856</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -3142,7 +3142,7 @@
         <v>1112</v>
       </c>
       <c r="C193">
-        <v>1.0353348255157471</v>
+        <v>0.94745945930480957</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -3156,7 +3156,7 @@
         <v>4711</v>
       </c>
       <c r="C194">
-        <v>5.2995657920837402</v>
+        <v>4.8057448863983154</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -3170,7 +3170,7 @@
         <v>1459</v>
       </c>
       <c r="C195">
-        <v>1.2813346385955811</v>
+        <v>1.2143287658691411</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -3184,7 +3184,7 @@
         <v>1743</v>
       </c>
       <c r="C196">
-        <v>1.5193295478820801</v>
+        <v>1.48406457901001</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -3198,7 +3198,7 @@
         <v>2901</v>
       </c>
       <c r="C197">
-        <v>2.885852575302124</v>
+        <v>2.7333567142486568</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>9312</v>
       </c>
       <c r="C198">
-        <v>13.313563346862789</v>
+        <v>13.83049511909485</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -3226,7 +3226,7 @@
         <v>2536</v>
       </c>
       <c r="C199">
-        <v>2.36570143699646</v>
+        <v>2.4283735752105708</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -3240,7 +3240,7 @@
         <v>6999</v>
       </c>
       <c r="C200">
-        <v>9.2978339195251465</v>
+        <v>9.1164350509643555</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -3254,7 +3254,7 @@
         <v>1452</v>
       </c>
       <c r="C201">
-        <v>1.201211214065552</v>
+        <v>1.417777538299561</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -3268,7 +3268,7 @@
         <v>4959</v>
       </c>
       <c r="C202">
-        <v>4.1356451511383057</v>
+        <v>4.0983724594116211</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -3282,7 +3282,7 @@
         <v>8212</v>
       </c>
       <c r="C203">
-        <v>8.5680458545684814</v>
+        <v>8.695814847946167</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -3296,7 +3296,7 @@
         <v>2464</v>
       </c>
       <c r="C204">
-        <v>1.765658855438232</v>
+        <v>1.7121729850769041</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -3310,7 +3310,7 @@
         <v>1330</v>
       </c>
       <c r="C205">
-        <v>0.8860926628112793</v>
+        <v>0.79320979118347168</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -3324,7 +3324,7 @@
         <v>853</v>
       </c>
       <c r="C206">
-        <v>0.52102398872375488</v>
+        <v>0.48153519630432129</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -3338,7 +3338,7 @@
         <v>1181</v>
       </c>
       <c r="C207">
-        <v>0.72011089324951172</v>
+        <v>0.71834158897399902</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -3352,7 +3352,7 @@
         <v>2512</v>
       </c>
       <c r="C208">
-        <v>1.7716150283813481</v>
+        <v>1.7644386291503911</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -3366,7 +3366,7 @@
         <v>1565</v>
       </c>
       <c r="C209">
-        <v>0.9678351879119873</v>
+        <v>0.9517059326171875</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -3380,7 +3380,7 @@
         <v>1508</v>
       </c>
       <c r="C210">
-        <v>0.95112419128417969</v>
+        <v>0.87327361106872559</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -3394,7 +3394,7 @@
         <v>15014</v>
       </c>
       <c r="C211">
-        <v>25.611815214157101</v>
+        <v>24.317418098449711</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -3408,7 +3408,7 @@
         <v>5761</v>
       </c>
       <c r="C212">
-        <v>5.9676220417022714</v>
+        <v>5.6786022186279297</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -3422,7 +3422,7 @@
         <v>741</v>
       </c>
       <c r="C213">
-        <v>0.48576736450195313</v>
+        <v>0.46056294441223139</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -3436,7 +3436,7 @@
         <v>13715</v>
       </c>
       <c r="C214">
-        <v>22.53235030174255</v>
+        <v>21.272654056549069</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -3450,7 +3450,7 @@
         <v>749</v>
       </c>
       <c r="C215">
-        <v>0.80302858352661133</v>
+        <v>0.48697185516357422</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -3464,7 +3464,7 @@
         <v>1018</v>
       </c>
       <c r="C216">
-        <v>0.8399956226348877</v>
+        <v>0.66234564781188965</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -3478,7 +3478,7 @@
         <v>3563</v>
       </c>
       <c r="C217">
-        <v>3.335681676864624</v>
+        <v>2.8489656448364258</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -3492,7 +3492,7 @@
         <v>766</v>
       </c>
       <c r="C218">
-        <v>0.54876542091369629</v>
+        <v>0.50344586372375488</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -3506,7 +3506,7 @@
         <v>3521</v>
       </c>
       <c r="C219">
-        <v>3.3821666240692139</v>
+        <v>2.7829964160919189</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -3520,7 +3520,7 @@
         <v>985</v>
       </c>
       <c r="C220">
-        <v>0.7598729133605957</v>
+        <v>0.60502314567565918</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -3534,7 +3534,7 @@
         <v>2188</v>
       </c>
       <c r="C221">
-        <v>1.923288822174072</v>
+        <v>1.53340220451355</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -3548,7 +3548,7 @@
         <v>2744</v>
       </c>
       <c r="C222">
-        <v>2.5607073307037349</v>
+        <v>1.9781360626220701</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -3562,7 +3562,7 @@
         <v>2676</v>
       </c>
       <c r="C223">
-        <v>2.7030043601989751</v>
+        <v>2.0119278430938721</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -3576,7 +3576,7 @@
         <v>2303</v>
       </c>
       <c r="C224">
-        <v>2.0032470226287842</v>
+        <v>1.6112961769103999</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -3590,7 +3590,7 @@
         <v>9678</v>
       </c>
       <c r="C225">
-        <v>15.51045036315918</v>
+        <v>12.053933620452881</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -3604,7 +3604,7 @@
         <v>2598</v>
       </c>
       <c r="C226">
-        <v>2.6717245578765869</v>
+        <v>2.0102846622467041</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -3618,7 +3618,7 @@
         <v>11856</v>
       </c>
       <c r="C227">
-        <v>24.428963184356689</v>
+        <v>17.555616855621341</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -3632,7 +3632,7 @@
         <v>1390</v>
       </c>
       <c r="C228">
-        <v>1.466103076934814</v>
+        <v>1.112914085388184</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -3646,7 +3646,7 @@
         <v>1249</v>
       </c>
       <c r="C229">
-        <v>1.229534387588501</v>
+        <v>0.79993724822998047</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -3660,7 +3660,7 @@
         <v>6772</v>
       </c>
       <c r="C230">
-        <v>10.88424062728882</v>
+        <v>7.6369094848632813</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -3674,7 +3674,7 @@
         <v>1663</v>
       </c>
       <c r="C231">
-        <v>1.869559764862061</v>
+        <v>1.213232278823853</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -3688,7 +3688,7 @@
         <v>4473</v>
       </c>
       <c r="C232">
-        <v>6.0400567054748544</v>
+        <v>4.219130277633667</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -3702,7 +3702,7 @@
         <v>8660</v>
       </c>
       <c r="C233">
-        <v>15.220460414886469</v>
+        <v>10.40275502204895</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -3716,7 +3716,7 @@
         <v>3156</v>
       </c>
       <c r="C234">
-        <v>3.7948043346405029</v>
+        <v>2.4235637187957759</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -3730,7 +3730,7 @@
         <v>13964</v>
       </c>
       <c r="C235">
-        <v>31.03320050239563</v>
+        <v>22.009062051773071</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -3744,7 +3744,7 @@
         <v>1062</v>
       </c>
       <c r="C236">
-        <v>1.1389627456665039</v>
+        <v>0.71579599380493164</v>
       </c>
       <c r="D236">
         <v>1</v>
@@ -3758,7 +3758,7 @@
         <v>14232</v>
       </c>
       <c r="C237">
-        <v>34.272619247436523</v>
+        <v>23.538508415222172</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -3772,7 +3772,7 @@
         <v>2623</v>
       </c>
       <c r="C238">
-        <v>2.7842087745666499</v>
+        <v>1.968090772628784</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -3786,7 +3786,7 @@
         <v>1981</v>
       </c>
       <c r="C239">
-        <v>1.960860967636108</v>
+        <v>1.389482736587524</v>
       </c>
       <c r="D239">
         <v>1</v>
@@ -3800,7 +3800,7 @@
         <v>7261</v>
       </c>
       <c r="C240">
-        <v>11.82748770713806</v>
+        <v>8.6683239936828613</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -3814,7 +3814,7 @@
         <v>3805</v>
       </c>
       <c r="C241">
-        <v>4.7423112392425537</v>
+        <v>3.452777624130249</v>
       </c>
       <c r="D241">
         <v>1</v>
@@ -3828,7 +3828,7 @@
         <v>1972</v>
       </c>
       <c r="C242">
-        <v>2.211938619613647</v>
+        <v>1.4359781742095949</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -3842,7 +3842,7 @@
         <v>2431</v>
       </c>
       <c r="C243">
-        <v>2.6760654449462891</v>
+        <v>1.8487548828125</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -3856,7 +3856,7 @@
         <v>3243</v>
       </c>
       <c r="C244">
-        <v>4.5589852333068848</v>
+        <v>2.7564935684204102</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -3870,7 +3870,7 @@
         <v>4629</v>
       </c>
       <c r="C245">
-        <v>6.4330437183380127</v>
+        <v>4.2460954189300537</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -3884,7 +3884,7 @@
         <v>3354</v>
       </c>
       <c r="C246">
-        <v>4.0888991355895996</v>
+        <v>2.616416215896606</v>
       </c>
       <c r="D246">
         <v>1</v>
@@ -3898,7 +3898,7 @@
         <v>2581</v>
       </c>
       <c r="C247">
-        <v>2.8559868335723881</v>
+        <v>1.980938673019409</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>1641</v>
       </c>
       <c r="C248">
-        <v>1.7725663185119629</v>
+        <v>1.1664218902587891</v>
       </c>
       <c r="D248">
         <v>1</v>
@@ -3926,7 +3926,7 @@
         <v>2853</v>
       </c>
       <c r="C249">
-        <v>3.492326021194458</v>
+        <v>2.2644639015197749</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -3940,7 +3940,7 @@
         <v>3055</v>
       </c>
       <c r="C250">
-        <v>3.7745006084442139</v>
+        <v>2.4296448230743408</v>
       </c>
       <c r="D250">
         <v>1</v>
@@ -3954,7 +3954,7 @@
         <v>1585</v>
       </c>
       <c r="C251">
-        <v>1.539943933486938</v>
+        <v>1.1078569889068599</v>
       </c>
       <c r="D251">
         <v>1</v>
@@ -3968,7 +3968,7 @@
         <v>853</v>
       </c>
       <c r="C252">
-        <v>0.85627603530883789</v>
+        <v>0.56072854995727539</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -3982,7 +3982,7 @@
         <v>7175</v>
       </c>
       <c r="C253">
-        <v>11.675546646118161</v>
+        <v>7.6949026584625244</v>
       </c>
       <c r="D253">
         <v>1</v>
@@ -3996,7 +3996,7 @@
         <v>2913</v>
       </c>
       <c r="C254">
-        <v>3.3987853527069092</v>
+        <v>2.3490631580352779</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -4010,7 +4010,7 @@
         <v>7351</v>
       </c>
       <c r="C255">
-        <v>11.621742010116581</v>
+        <v>8.0163242816925049</v>
       </c>
       <c r="D255">
         <v>1</v>
@@ -4024,7 +4024,7 @@
         <v>4916</v>
       </c>
       <c r="C256">
-        <v>6.6827187538146973</v>
+        <v>4.5419890880584717</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -4038,7 +4038,7 @@
         <v>2078</v>
       </c>
       <c r="C257">
-        <v>2.4869329929351811</v>
+        <v>1.5151269435882571</v>
       </c>
       <c r="D257">
         <v>1</v>
@@ -4052,7 +4052,7 @@
         <v>8524</v>
       </c>
       <c r="C258">
-        <v>14.61162400245667</v>
+        <v>10.112167835235599</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -4066,7 +4066,7 @@
         <v>3812</v>
       </c>
       <c r="C259">
-        <v>4.8121199607849121</v>
+        <v>3.303181409835815</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -4080,7 +4080,7 @@
         <v>2118</v>
       </c>
       <c r="C260">
-        <v>2.1389238834381099</v>
+        <v>1.647865295410156</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -4094,7 +4094,7 @@
         <v>1714</v>
       </c>
       <c r="C261">
-        <v>1.818383455276489</v>
+        <v>1.231373071670532</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -4108,7 +4108,7 @@
         <v>1769</v>
       </c>
       <c r="C262">
-        <v>1.8782379627227781</v>
+        <v>1.385322093963623</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -4122,7 +4122,7 @@
         <v>1193</v>
       </c>
       <c r="C263">
-        <v>1.0771429538726811</v>
+        <v>0.80369329452514648</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -4136,7 +4136,7 @@
         <v>2598</v>
       </c>
       <c r="C264">
-        <v>2.9593658447265621</v>
+        <v>2.0340356826782231</v>
       </c>
       <c r="D264">
         <v>1</v>
@@ -4150,7 +4150,7 @@
         <v>1190</v>
       </c>
       <c r="C265">
-        <v>1.2003910541534419</v>
+        <v>0.7858271598815918</v>
       </c>
       <c r="D265">
         <v>1</v>
@@ -4164,7 +4164,7 @@
         <v>4963</v>
       </c>
       <c r="C266">
-        <v>6.7449865341186523</v>
+        <v>4.6184194087982178</v>
       </c>
       <c r="D266">
         <v>1</v>
@@ -4178,7 +4178,7 @@
         <v>1596</v>
       </c>
       <c r="C267">
-        <v>1.607687711715698</v>
+        <v>1.503684997558594</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -4192,7 +4192,7 @@
         <v>5118</v>
       </c>
       <c r="C268">
-        <v>6.9585084915161133</v>
+        <v>5.3063483238220206</v>
       </c>
       <c r="D268">
         <v>1</v>
@@ -4202,14 +4202,14 @@
       <c r="A269">
         <v>267</v>
       </c>
-      <c r="B269">
-        <v>18904</v>
-      </c>
-      <c r="C269">
-        <v>53.464581727981567</v>
+      <c r="B269" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269" t="s">
+        <v>4</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -4220,7 +4220,7 @@
         <v>2134</v>
       </c>
       <c r="C270">
-        <v>2.3765814304351811</v>
+        <v>1.586106538772583</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -4234,7 +4234,7 @@
         <v>1939</v>
       </c>
       <c r="C271">
-        <v>2.0235800743103032</v>
+        <v>1.4683017730712891</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -4248,7 +4248,7 @@
         <v>13763</v>
       </c>
       <c r="C272">
-        <v>31.297538995742801</v>
+        <v>22.68305134773254</v>
       </c>
       <c r="D272">
         <v>1</v>
@@ -4262,7 +4262,7 @@
         <v>1577</v>
       </c>
       <c r="C273">
-        <v>1.7479333877563481</v>
+        <v>1.143953323364258</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -4276,7 +4276,7 @@
         <v>1949</v>
       </c>
       <c r="C274">
-        <v>2.293431282043457</v>
+        <v>1.4606883525848391</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -4290,7 +4290,7 @@
         <v>2963</v>
       </c>
       <c r="C275">
-        <v>3.527647972106934</v>
+        <v>2.2733759880065918</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -4304,7 +4304,7 @@
         <v>8482</v>
       </c>
       <c r="C276">
-        <v>14.62190937995911</v>
+        <v>9.9311287403106689</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -4318,7 +4318,7 @@
         <v>4190</v>
       </c>
       <c r="C277">
-        <v>5.8643391132354736</v>
+        <v>3.9862790107727051</v>
       </c>
       <c r="D277">
         <v>1</v>
@@ -4332,7 +4332,7 @@
         <v>11342</v>
       </c>
       <c r="C278">
-        <v>22.708869457244869</v>
+        <v>16.790266513824459</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -4346,7 +4346,7 @@
         <v>1419</v>
       </c>
       <c r="C279">
-        <v>1.4301226139068599</v>
+        <v>0.95682239532470703</v>
       </c>
       <c r="D279">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         <v>2528</v>
       </c>
       <c r="C280">
-        <v>3.121759176254272</v>
+        <v>1.924063920974731</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -4374,7 +4374,7 @@
         <v>3002</v>
       </c>
       <c r="C281">
-        <v>3.4151568412780762</v>
+        <v>2.5847446918487549</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -4388,7 +4388,7 @@
         <v>1778</v>
       </c>
       <c r="C282">
-        <v>1.755224943161011</v>
+        <v>1.21989893913269</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -4402,7 +4402,7 @@
         <v>3733</v>
       </c>
       <c r="C283">
-        <v>5.0783610343933114</v>
+        <v>3.1765058040618901</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -4416,7 +4416,7 @@
         <v>1352</v>
       </c>
       <c r="C284">
-        <v>1.343448400497437</v>
+        <v>0.98253750801086426</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -4430,7 +4430,7 @@
         <v>3275</v>
       </c>
       <c r="C285">
-        <v>3.9043757915496831</v>
+        <v>3.2235920429229741</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -4444,7 +4444,7 @@
         <v>948</v>
       </c>
       <c r="C286">
-        <v>0.91263985633850098</v>
+        <v>0.64051651954650879</v>
       </c>
       <c r="D286">
         <v>1</v>
@@ -4458,7 +4458,7 @@
         <v>3792</v>
       </c>
       <c r="C287">
-        <v>4.5246472358703613</v>
+        <v>3.178394079208374</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -4472,7 +4472,7 @@
         <v>720</v>
       </c>
       <c r="C288">
-        <v>0.70618414878845215</v>
+        <v>0.44285941123962402</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -4486,7 +4486,7 @@
         <v>4851</v>
       </c>
       <c r="C289">
-        <v>6.6975264549255371</v>
+        <v>4.6128556728363037</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -4500,7 +4500,7 @@
         <v>1201</v>
       </c>
       <c r="C290">
-        <v>1.2481400966644289</v>
+        <v>0.88835668563842773</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -4514,7 +4514,7 @@
         <v>1548</v>
       </c>
       <c r="C291">
-        <v>1.7620255947113039</v>
+        <v>1.107494115829468</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -4528,7 +4528,7 @@
         <v>5027</v>
       </c>
       <c r="C292">
-        <v>6.995002269744873</v>
+        <v>4.9820163249969482</v>
       </c>
       <c r="D292">
         <v>1</v>
@@ -4542,7 +4542,7 @@
         <v>1056</v>
       </c>
       <c r="C293">
-        <v>1.258956670761108</v>
+        <v>0.75475406646728516</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -4556,7 +4556,7 @@
         <v>1560</v>
       </c>
       <c r="C294">
-        <v>1.472793340682983</v>
+        <v>1.1780345439910891</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -4584,7 +4584,7 @@
         <v>1434</v>
       </c>
       <c r="C296">
-        <v>1.343744277954102</v>
+        <v>0.97309613227844238</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -4598,7 +4598,7 @@
         <v>1843</v>
       </c>
       <c r="C297">
-        <v>2.1565508842468262</v>
+        <v>1.2475917339324949</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -4612,7 +4612,7 @@
         <v>1968</v>
       </c>
       <c r="C298">
-        <v>2.124179601669312</v>
+        <v>1.4037096500396731</v>
       </c>
       <c r="D298">
         <v>1</v>
@@ -4640,7 +4640,7 @@
         <v>1799</v>
       </c>
       <c r="C300">
-        <v>1.664633989334106</v>
+        <v>1.517293453216553</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -4654,7 +4654,7 @@
         <v>1569</v>
       </c>
       <c r="C301">
-        <v>1.533807039260864</v>
+        <v>1.3219761848449709</v>
       </c>
       <c r="D301">
         <v>1</v>
@@ -4668,7 +4668,7 @@
         <v>1617</v>
       </c>
       <c r="C302">
-        <v>1.0539231300353999</v>
+        <v>1.0118575096130371</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -4682,7 +4682,7 @@
         <v>6522</v>
       </c>
       <c r="C303">
-        <v>6.3247902393341056</v>
+        <v>6.2442781925201416</v>
       </c>
       <c r="D303">
         <v>1</v>
@@ -4696,7 +4696,7 @@
         <v>1265</v>
       </c>
       <c r="C304">
-        <v>0.80879497528076172</v>
+        <v>0.81549310684204102</v>
       </c>
       <c r="D304">
         <v>1</v>
@@ -4710,7 +4710,7 @@
         <v>419</v>
       </c>
       <c r="C305">
-        <v>0.22449922561645511</v>
+        <v>0.21787333488464361</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -4724,7 +4724,7 @@
         <v>3079</v>
       </c>
       <c r="C306">
-        <v>2.227866411209106</v>
+        <v>2.174959659576416</v>
       </c>
       <c r="D306">
         <v>1</v>
@@ -4738,7 +4738,7 @@
         <v>2004</v>
       </c>
       <c r="C307">
-        <v>1.34191370010376</v>
+        <v>1.2482864856719971</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -4752,7 +4752,7 @@
         <v>2031</v>
       </c>
       <c r="C308">
-        <v>1.455008983612061</v>
+        <v>1.3127527236938481</v>
       </c>
       <c r="D308">
         <v>1</v>
@@ -4766,7 +4766,7 @@
         <v>4702</v>
       </c>
       <c r="C309">
-        <v>4.3735880851745614</v>
+        <v>3.7659287452697749</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -4780,7 +4780,7 @@
         <v>2068</v>
       </c>
       <c r="C310">
-        <v>1.507617235183716</v>
+        <v>1.4685876369476321</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -4794,7 +4794,7 @@
         <v>8853</v>
       </c>
       <c r="C311">
-        <v>11.062119722366329</v>
+        <v>10.598437547683719</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -4808,7 +4808,7 @@
         <v>3903</v>
       </c>
       <c r="C312">
-        <v>3.6166925430297852</v>
+        <v>3.232631921768188</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -4822,7 +4822,7 @@
         <v>3383</v>
       </c>
       <c r="C313">
-        <v>3.037991046905518</v>
+        <v>2.7929477691650391</v>
       </c>
       <c r="D313">
         <v>1</v>
@@ -4836,7 +4836,7 @@
         <v>3022</v>
       </c>
       <c r="C314">
-        <v>2.3867876529693599</v>
+        <v>2.4005928039550781</v>
       </c>
       <c r="D314">
         <v>1</v>
@@ -4850,7 +4850,7 @@
         <v>4533</v>
       </c>
       <c r="C315">
-        <v>4.176846981048584</v>
+        <v>3.9588015079498291</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -4864,7 +4864,7 @@
         <v>10233</v>
       </c>
       <c r="C316">
-        <v>13.697654962539669</v>
+        <v>13.202862024307249</v>
       </c>
       <c r="D316">
         <v>1</v>
@@ -4878,7 +4878,7 @@
         <v>3100</v>
       </c>
       <c r="C317">
-        <v>3.0497932434082031</v>
+        <v>2.503401517868042</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -4892,7 +4892,7 @@
         <v>1869</v>
       </c>
       <c r="C318">
-        <v>1.632583856582642</v>
+        <v>1.373122453689575</v>
       </c>
       <c r="D318">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>1645</v>
       </c>
       <c r="C319">
-        <v>1.548243045806885</v>
+        <v>1.0803332328796389</v>
       </c>
       <c r="D319">
         <v>1</v>
@@ -4920,7 +4920,7 @@
         <v>880</v>
       </c>
       <c r="C320">
-        <v>0.78186607360839844</v>
+        <v>0.56189966201782227</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -4934,7 +4934,7 @@
         <v>16589</v>
       </c>
       <c r="C321">
-        <v>37.484811544418328</v>
+        <v>29.99485540390015</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -4948,7 +4948,7 @@
         <v>1318</v>
       </c>
       <c r="C322">
-        <v>1.3441038131713869</v>
+        <v>0.88315582275390625</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -4962,7 +4962,7 @@
         <v>1401</v>
       </c>
       <c r="C323">
-        <v>1.4063069820404051</v>
+        <v>0.94011521339416504</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -4976,7 +4976,7 @@
         <v>14218</v>
       </c>
       <c r="C324">
-        <v>33.697544097900391</v>
+        <v>23.521876573562619</v>
       </c>
       <c r="D324">
         <v>1</v>
@@ -4990,7 +4990,7 @@
         <v>16060</v>
       </c>
       <c r="C325">
-        <v>40.405927896499627</v>
+        <v>29.059113740921021</v>
       </c>
       <c r="D325">
         <v>1</v>
@@ -5004,7 +5004,7 @@
         <v>1159</v>
       </c>
       <c r="C326">
-        <v>0.97786569595336914</v>
+        <v>0.71972250938415527</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -5018,7 +5018,7 @@
         <v>1019</v>
       </c>
       <c r="C327">
-        <v>0.93238139152526855</v>
+        <v>0.63235306739807129</v>
       </c>
       <c r="D327">
         <v>1</v>
@@ -5028,14 +5028,14 @@
       <c r="A328">
         <v>326</v>
       </c>
-      <c r="B328">
-        <v>17514</v>
-      </c>
-      <c r="C328">
-        <v>46.762646198272712</v>
+      <c r="B328" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" t="s">
+        <v>4</v>
       </c>
       <c r="D328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
@@ -5046,7 +5046,7 @@
         <v>5930</v>
       </c>
       <c r="C329">
-        <v>8.3550121784210205</v>
+        <v>6.1119847297668457</v>
       </c>
       <c r="D329">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>3175</v>
       </c>
       <c r="C330">
-        <v>3.8976871967315669</v>
+        <v>2.6678919792175289</v>
       </c>
       <c r="D330">
         <v>1</v>
@@ -5074,7 +5074,7 @@
         <v>3000</v>
       </c>
       <c r="C331">
-        <v>3.6182947158813481</v>
+        <v>2.5718369483947749</v>
       </c>
       <c r="D331">
         <v>1</v>
@@ -5088,7 +5088,7 @@
         <v>9938</v>
       </c>
       <c r="C332">
-        <v>18.895241975784302</v>
+        <v>13.127405405044559</v>
       </c>
       <c r="D332">
         <v>1</v>
@@ -5102,7 +5102,7 @@
         <v>1970</v>
       </c>
       <c r="C333">
-        <v>2.3569612503051758</v>
+        <v>1.4662859439849849</v>
       </c>
       <c r="D333">
         <v>1</v>
@@ -5116,7 +5116,7 @@
         <v>1957</v>
       </c>
       <c r="C334">
-        <v>1.9989838600158689</v>
+        <v>1.435853958129883</v>
       </c>
       <c r="D334">
         <v>1</v>
@@ -5130,7 +5130,7 @@
         <v>5876</v>
       </c>
       <c r="C335">
-        <v>8.6562764644622803</v>
+        <v>6.0338339805603027</v>
       </c>
       <c r="D335">
         <v>1</v>
@@ -5144,7 +5144,7 @@
         <v>4218</v>
       </c>
       <c r="C336">
-        <v>5.3659985065460214</v>
+        <v>3.8632686138153081</v>
       </c>
       <c r="D336">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>7858</v>
       </c>
       <c r="C337">
-        <v>13.04450750350952</v>
+        <v>9.0664348602294922</v>
       </c>
       <c r="D337">
         <v>1</v>
@@ -5168,14 +5168,14 @@
       <c r="A338">
         <v>336</v>
       </c>
-      <c r="B338">
-        <v>20088</v>
-      </c>
-      <c r="C338">
-        <v>59.078347682952881</v>
+      <c r="B338" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338" t="s">
+        <v>4</v>
       </c>
       <c r="D338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
@@ -5186,7 +5186,7 @@
         <v>1137</v>
       </c>
       <c r="C339">
-        <v>1.1084251403808589</v>
+        <v>0.76176786422729492</v>
       </c>
       <c r="D339">
         <v>1</v>
@@ -5200,7 +5200,7 @@
         <v>1933</v>
       </c>
       <c r="C340">
-        <v>2.2046220302581792</v>
+        <v>1.421967506408691</v>
       </c>
       <c r="D340">
         <v>1</v>
@@ -5214,7 +5214,7 @@
         <v>1907</v>
       </c>
       <c r="C341">
-        <v>2.0379374027252202</v>
+        <v>1.3757724761962891</v>
       </c>
       <c r="D341">
         <v>1</v>
@@ -5228,7 +5228,7 @@
         <v>928</v>
       </c>
       <c r="C342">
-        <v>0.87000751495361328</v>
+        <v>0.58441376686096191</v>
       </c>
       <c r="D342">
         <v>1</v>
@@ -5242,7 +5242,7 @@
         <v>3214</v>
       </c>
       <c r="C343">
-        <v>3.952991247177124</v>
+        <v>2.7447385787963872</v>
       </c>
       <c r="D343">
         <v>1</v>
@@ -5256,7 +5256,7 @@
         <v>1589</v>
       </c>
       <c r="C344">
-        <v>1.5648760795593259</v>
+        <v>1.1235060691833501</v>
       </c>
       <c r="D344">
         <v>1</v>
@@ -5270,7 +5270,7 @@
         <v>1520</v>
       </c>
       <c r="C345">
-        <v>1.4435479640960689</v>
+        <v>1.078227758407593</v>
       </c>
       <c r="D345">
         <v>1</v>
@@ -5284,7 +5284,7 @@
         <v>717</v>
       </c>
       <c r="C346">
-        <v>0.69513607025146484</v>
+        <v>0.46075844764709473</v>
       </c>
       <c r="D346">
         <v>1</v>
@@ -5294,14 +5294,14 @@
       <c r="A347">
         <v>345</v>
       </c>
-      <c r="B347">
-        <v>16734</v>
-      </c>
-      <c r="C347">
-        <v>43.999315738677979</v>
+      <c r="B347" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347" t="s">
+        <v>4</v>
       </c>
       <c r="D347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
@@ -5312,7 +5312,7 @@
         <v>1539</v>
       </c>
       <c r="C348">
-        <v>1.6814677715301509</v>
+        <v>1.1276533603668211</v>
       </c>
       <c r="D348">
         <v>1</v>
@@ -5326,7 +5326,7 @@
         <v>4020</v>
       </c>
       <c r="C349">
-        <v>5.2070691585540771</v>
+        <v>3.8314201831817631</v>
       </c>
       <c r="D349">
         <v>1</v>
@@ -5340,7 +5340,7 @@
         <v>1991</v>
       </c>
       <c r="C350">
-        <v>1.958847284317017</v>
+        <v>1.6343536376953121</v>
       </c>
       <c r="D350">
         <v>1</v>
@@ -5354,7 +5354,7 @@
         <v>2404</v>
       </c>
       <c r="C351">
-        <v>2.7536051273345952</v>
+        <v>1.992886543273926</v>
       </c>
       <c r="D351">
         <v>1</v>
@@ -5368,7 +5368,7 @@
         <v>1870</v>
       </c>
       <c r="C352">
-        <v>1.963192224502563</v>
+        <v>1.3296549320220949</v>
       </c>
       <c r="D352">
         <v>1</v>
@@ -5382,7 +5382,7 @@
         <v>11300</v>
       </c>
       <c r="C353">
-        <v>22.310856580734249</v>
+        <v>16.077150583267208</v>
       </c>
       <c r="D353">
         <v>1</v>
@@ -5410,7 +5410,7 @@
         <v>1822</v>
       </c>
       <c r="C355">
-        <v>2.0358467102050781</v>
+        <v>1.273597240447998</v>
       </c>
       <c r="D355">
         <v>1</v>
@@ -5424,7 +5424,7 @@
         <v>4122</v>
       </c>
       <c r="C356">
-        <v>5.0270421504974374</v>
+        <v>3.9437112808227539</v>
       </c>
       <c r="D356">
         <v>1</v>
@@ -5438,7 +5438,7 @@
         <v>3466</v>
       </c>
       <c r="C357">
-        <v>4.3802046775817871</v>
+        <v>2.895415306091309</v>
       </c>
       <c r="D357">
         <v>1</v>
@@ -5452,7 +5452,7 @@
         <v>1515</v>
       </c>
       <c r="C358">
-        <v>1.639364957809448</v>
+        <v>1.0252218246459961</v>
       </c>
       <c r="D358">
         <v>1</v>
@@ -5466,7 +5466,7 @@
         <v>6094</v>
       </c>
       <c r="C359">
-        <v>9.2223231792449951</v>
+        <v>6.0721724033355713</v>
       </c>
       <c r="D359">
         <v>1</v>
@@ -5480,7 +5480,7 @@
         <v>6092</v>
       </c>
       <c r="C360">
-        <v>9.1535751819610596</v>
+        <v>6.4473633766174316</v>
       </c>
       <c r="D360">
         <v>1</v>
@@ -5494,7 +5494,7 @@
         <v>3740</v>
       </c>
       <c r="C361">
-        <v>4.4320440292358398</v>
+        <v>3.261232852935791</v>
       </c>
       <c r="D361">
         <v>1</v>
@@ -5522,7 +5522,7 @@
         <v>8851</v>
       </c>
       <c r="C363">
-        <v>15.22108435630798</v>
+        <v>10.696730852127081</v>
       </c>
       <c r="D363">
         <v>1</v>
@@ -5536,7 +5536,7 @@
         <v>2216</v>
       </c>
       <c r="C364">
-        <v>2.4234941005706792</v>
+        <v>1.532927989959717</v>
       </c>
       <c r="D364">
         <v>1</v>
@@ -5550,7 +5550,7 @@
         <v>9291</v>
       </c>
       <c r="C365">
-        <v>16.678761720657349</v>
+        <v>11.501137256622309</v>
       </c>
       <c r="D365">
         <v>1</v>
@@ -5564,7 +5564,7 @@
         <v>4676</v>
       </c>
       <c r="C366">
-        <v>5.8921597003936768</v>
+        <v>4.4912056922912598</v>
       </c>
       <c r="D366">
         <v>1</v>
@@ -5578,7 +5578,7 @@
         <v>1525</v>
       </c>
       <c r="C367">
-        <v>1.5103437900543211</v>
+        <v>1.0243334770202639</v>
       </c>
       <c r="D367">
         <v>1</v>
@@ -5592,7 +5592,7 @@
         <v>3481</v>
       </c>
       <c r="C368">
-        <v>4.6346678733825684</v>
+        <v>3.2082421779632568</v>
       </c>
       <c r="D368">
         <v>1</v>
@@ -5606,7 +5606,7 @@
         <v>1718</v>
       </c>
       <c r="C369">
-        <v>1.897492647171021</v>
+        <v>1.317357063293457</v>
       </c>
       <c r="D369">
         <v>1</v>
@@ -5620,7 +5620,7 @@
         <v>1709</v>
       </c>
       <c r="C370">
-        <v>1.8102700710296631</v>
+        <v>1.097531795501709</v>
       </c>
       <c r="D370">
         <v>1</v>
@@ -5630,14 +5630,14 @@
       <c r="A371">
         <v>369</v>
       </c>
-      <c r="B371">
-        <v>16473</v>
-      </c>
-      <c r="C371">
-        <v>40.281096935272217</v>
+      <c r="B371" t="s">
+        <v>4</v>
+      </c>
+      <c r="C371" t="s">
+        <v>4</v>
       </c>
       <c r="D371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
@@ -5648,7 +5648,7 @@
         <v>1506</v>
       </c>
       <c r="C372">
-        <v>1.378975391387939</v>
+        <v>1.147078275680542</v>
       </c>
       <c r="D372">
         <v>1</v>
@@ -5662,7 +5662,7 @@
         <v>3425</v>
       </c>
       <c r="C373">
-        <v>3.9162833690643311</v>
+        <v>2.8800604343414311</v>
       </c>
       <c r="D373">
         <v>1</v>
@@ -5676,7 +5676,7 @@
         <v>1572</v>
       </c>
       <c r="C374">
-        <v>1.4167177677154541</v>
+        <v>1.1646406650543211</v>
       </c>
       <c r="D374">
         <v>1</v>
@@ -5690,7 +5690,7 @@
         <v>9116</v>
       </c>
       <c r="C375">
-        <v>14.60236883163452</v>
+        <v>13.15056180953979</v>
       </c>
       <c r="D375">
         <v>1</v>
@@ -5704,7 +5704,7 @@
         <v>1494</v>
       </c>
       <c r="C376">
-        <v>1.361309289932251</v>
+        <v>1.187613964080811</v>
       </c>
       <c r="D376">
         <v>1</v>
@@ -5718,7 +5718,7 @@
         <v>1272</v>
       </c>
       <c r="C377">
-        <v>1.1115043163299561</v>
+        <v>1.0509076118469241</v>
       </c>
       <c r="D377">
         <v>1</v>
@@ -5732,7 +5732,7 @@
         <v>5880</v>
       </c>
       <c r="C378">
-        <v>7.8891093730926514</v>
+        <v>7.5841982364654541</v>
       </c>
       <c r="D378">
         <v>1</v>
@@ -5746,7 +5746,7 @@
         <v>11951</v>
       </c>
       <c r="C379">
-        <v>22.20879435539246</v>
+        <v>21.781932592391971</v>
       </c>
       <c r="D379">
         <v>1</v>
@@ -5760,7 +5760,7 @@
         <v>3604</v>
       </c>
       <c r="C380">
-        <v>4.1222336292266846</v>
+        <v>3.8362166881561279</v>
       </c>
       <c r="D380">
         <v>1</v>
@@ -5774,7 +5774,7 @@
         <v>9628</v>
       </c>
       <c r="C381">
-        <v>15.33045434951782</v>
+        <v>14.890477180480961</v>
       </c>
       <c r="D381">
         <v>1</v>
@@ -5788,7 +5788,7 @@
         <v>7190</v>
       </c>
       <c r="C382">
-        <v>10.007971048355101</v>
+        <v>9.4505529403686523</v>
       </c>
       <c r="D382">
         <v>1</v>
@@ -5802,7 +5802,7 @@
         <v>1345</v>
       </c>
       <c r="C383">
-        <v>1.2173507213592529</v>
+        <v>1.1169230937957759</v>
       </c>
       <c r="D383">
         <v>1</v>
@@ -5830,7 +5830,7 @@
         <v>7331</v>
       </c>
       <c r="C385">
-        <v>10.489434480667111</v>
+        <v>9.2913894653320313</v>
       </c>
       <c r="D385">
         <v>1</v>
@@ -5844,7 +5844,7 @@
         <v>5803</v>
       </c>
       <c r="C386">
-        <v>7.0544731616973877</v>
+        <v>6.7445497512817383</v>
       </c>
       <c r="D386">
         <v>1</v>
@@ -5858,7 +5858,7 @@
         <v>1233</v>
       </c>
       <c r="C387">
-        <v>0.98898148536682129</v>
+        <v>0.94988465309143066</v>
       </c>
       <c r="D387">
         <v>1</v>
@@ -5872,7 +5872,7 @@
         <v>1332</v>
       </c>
       <c r="C388">
-        <v>1.0521664619445801</v>
+        <v>1.0767636299133301</v>
       </c>
       <c r="D388">
         <v>1</v>
@@ -5886,7 +5886,7 @@
         <v>1179</v>
       </c>
       <c r="C389">
-        <v>0.90102529525756836</v>
+        <v>0.93080973625183105</v>
       </c>
       <c r="D389">
         <v>1</v>
@@ -5900,7 +5900,7 @@
         <v>631</v>
       </c>
       <c r="C390">
-        <v>0.43267607688903809</v>
+        <v>0.4236299991607666</v>
       </c>
       <c r="D390">
         <v>1</v>
@@ -5914,7 +5914,7 @@
         <v>1136</v>
       </c>
       <c r="C391">
-        <v>0.90335941314697266</v>
+        <v>0.9282371997833252</v>
       </c>
       <c r="D391">
         <v>1</v>
@@ -5928,7 +5928,7 @@
         <v>6379</v>
       </c>
       <c r="C392">
-        <v>7.5475940704345703</v>
+        <v>7.6453177928924561</v>
       </c>
       <c r="D392">
         <v>1</v>
@@ -5942,7 +5942,7 @@
         <v>2030</v>
       </c>
       <c r="C393">
-        <v>1.801545143127441</v>
+        <v>1.626486539840698</v>
       </c>
       <c r="D393">
         <v>1</v>
@@ -5956,7 +5956,7 @@
         <v>12025</v>
       </c>
       <c r="C394">
-        <v>20.58647632598877</v>
+        <v>18.6900520324707</v>
       </c>
       <c r="D394">
         <v>1</v>
@@ -5970,7 +5970,7 @@
         <v>2857</v>
       </c>
       <c r="C395">
-        <v>2.66163182258606</v>
+        <v>2.3748149871826172</v>
       </c>
       <c r="D395">
         <v>1</v>
@@ -5984,7 +5984,7 @@
         <v>983</v>
       </c>
       <c r="C396">
-        <v>0.80663466453552246</v>
+        <v>0.69417834281921387</v>
       </c>
       <c r="D396">
         <v>1</v>
@@ -5998,7 +5998,7 @@
         <v>15898</v>
       </c>
       <c r="C397">
-        <v>33.042876482009888</v>
+        <v>29.563552856445309</v>
       </c>
       <c r="D397">
         <v>1</v>
@@ -6012,7 +6012,7 @@
         <v>1861</v>
       </c>
       <c r="C398">
-        <v>1.4468622207641599</v>
+        <v>1.402628898620605</v>
       </c>
       <c r="D398">
         <v>1</v>
@@ -6026,7 +6026,7 @@
         <v>4370</v>
       </c>
       <c r="C399">
-        <v>4.3205482959747306</v>
+        <v>4.1108031272888184</v>
       </c>
       <c r="D399">
         <v>1</v>
@@ -6040,7 +6040,7 @@
         <v>1433</v>
       </c>
       <c r="C400">
-        <v>1.3066093921661379</v>
+        <v>1.094266891479492</v>
       </c>
       <c r="D400">
         <v>1</v>
@@ -6054,7 +6054,7 @@
         <v>4121</v>
       </c>
       <c r="C401">
-        <v>4.2635936737060547</v>
+        <v>3.8605530261993408</v>
       </c>
       <c r="D401">
         <v>1</v>
@@ -6068,7 +6068,7 @@
         <v>651</v>
       </c>
       <c r="C402">
-        <v>0.37721657752990723</v>
+        <v>0.34920167922973627</v>
       </c>
       <c r="D402">
         <v>1</v>
@@ -6082,7 +6082,7 @@
         <v>1508</v>
       </c>
       <c r="C403">
-        <v>0.94590663909912109</v>
+        <v>0.88468337059020996</v>
       </c>
       <c r="D403">
         <v>1</v>
@@ -6096,7 +6096,7 @@
         <v>4503</v>
       </c>
       <c r="C404">
-        <v>3.8065812587738042</v>
+        <v>3.5845987796783452</v>
       </c>
       <c r="D404">
         <v>1</v>
@@ -6110,7 +6110,7 @@
         <v>3909</v>
       </c>
       <c r="C405">
-        <v>3.3359494209289551</v>
+        <v>2.8774566650390621</v>
       </c>
       <c r="D405">
         <v>1</v>
@@ -6124,7 +6124,7 @@
         <v>3483</v>
       </c>
       <c r="C406">
-        <v>3.0558111667633061</v>
+        <v>2.6500225067138672</v>
       </c>
       <c r="D406">
         <v>1</v>
@@ -6138,7 +6138,7 @@
         <v>1650</v>
       </c>
       <c r="C407">
-        <v>1.385398149490356</v>
+        <v>1.1190154552459719</v>
       </c>
       <c r="D407">
         <v>1</v>
@@ -6148,14 +6148,14 @@
       <c r="A408">
         <v>406</v>
       </c>
-      <c r="B408">
-        <v>17869</v>
-      </c>
-      <c r="C408">
-        <v>34.476441621780403</v>
+      <c r="B408" t="s">
+        <v>4</v>
+      </c>
+      <c r="C408" t="s">
+        <v>4</v>
       </c>
       <c r="D408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
@@ -6166,7 +6166,7 @@
         <v>4180</v>
       </c>
       <c r="C409">
-        <v>4.1179327964782706</v>
+        <v>3.5364716053009029</v>
       </c>
       <c r="D409">
         <v>1</v>
@@ -6180,7 +6180,7 @@
         <v>3640</v>
       </c>
       <c r="C410">
-        <v>3.6669406890869141</v>
+        <v>2.9606301784515381</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -6194,7 +6194,7 @@
         <v>15481</v>
       </c>
       <c r="C411">
-        <v>33.657763004302979</v>
+        <v>26.4764838218689</v>
       </c>
       <c r="D411">
         <v>1</v>
@@ -6208,7 +6208,7 @@
         <v>1990</v>
       </c>
       <c r="C412">
-        <v>1.7812516689300539</v>
+        <v>1.3508021831512449</v>
       </c>
       <c r="D412">
         <v>1</v>
@@ -6222,7 +6222,7 @@
         <v>1674</v>
       </c>
       <c r="C413">
-        <v>1.487668991088867</v>
+        <v>1.0895371437072749</v>
       </c>
       <c r="D413">
         <v>1</v>
@@ -6236,7 +6236,7 @@
         <v>2146</v>
       </c>
       <c r="C414">
-        <v>2.2690045833587651</v>
+        <v>1.4983928203582759</v>
       </c>
       <c r="D414">
         <v>1</v>
@@ -6250,7 +6250,7 @@
         <v>4406</v>
       </c>
       <c r="C415">
-        <v>5.7061514854431152</v>
+        <v>3.91981053352356</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -6264,7 +6264,7 @@
         <v>1398</v>
       </c>
       <c r="C416">
-        <v>1.322273969650269</v>
+        <v>1.0014488697052</v>
       </c>
       <c r="D416">
         <v>1</v>
@@ -6278,7 +6278,7 @@
         <v>2482</v>
       </c>
       <c r="C417">
-        <v>2.9034652709960942</v>
+        <v>1.941220283508301</v>
       </c>
       <c r="D417">
         <v>1</v>
@@ -6292,7 +6292,7 @@
         <v>2129</v>
       </c>
       <c r="C418">
-        <v>2.2265803813934331</v>
+        <v>1.7538847923278811</v>
       </c>
       <c r="D418">
         <v>1</v>
@@ -6306,7 +6306,7 @@
         <v>1725</v>
       </c>
       <c r="C419">
-        <v>1.874288082122803</v>
+        <v>1.191209077835083</v>
       </c>
       <c r="D419">
         <v>1</v>
@@ -6320,7 +6320,7 @@
         <v>1173</v>
       </c>
       <c r="C420">
-        <v>1.2179164886474609</v>
+        <v>0.80682682991027832</v>
       </c>
       <c r="D420">
         <v>1</v>
@@ -6348,7 +6348,7 @@
         <v>5610</v>
       </c>
       <c r="C422">
-        <v>8.5372672080993652</v>
+        <v>5.446446418762207</v>
       </c>
       <c r="D422">
         <v>1</v>
@@ -6362,7 +6362,7 @@
         <v>12802</v>
       </c>
       <c r="C423">
-        <v>28.32984471321106</v>
+        <v>19.006140470504761</v>
       </c>
       <c r="D423">
         <v>1</v>
@@ -6376,7 +6376,7 @@
         <v>1371</v>
       </c>
       <c r="C424">
-        <v>1.2639985084533689</v>
+        <v>0.926055908203125</v>
       </c>
       <c r="D424">
         <v>1</v>
@@ -6390,7 +6390,7 @@
         <v>2352</v>
       </c>
       <c r="C425">
-        <v>2.520950078964233</v>
+        <v>1.771992444992065</v>
       </c>
       <c r="D425">
         <v>1</v>
@@ -6404,7 +6404,7 @@
         <v>622</v>
       </c>
       <c r="C426">
-        <v>0.6337745189666748</v>
+        <v>0.40799403190612787</v>
       </c>
       <c r="D426">
         <v>1</v>
@@ -6418,7 +6418,7 @@
         <v>2055</v>
       </c>
       <c r="C427">
-        <v>2.2306327819824219</v>
+        <v>1.4997291564941411</v>
       </c>
       <c r="D427">
         <v>1</v>
@@ -6432,7 +6432,7 @@
         <v>718</v>
       </c>
       <c r="C428">
-        <v>0.73401737213134766</v>
+        <v>0.45782136917114258</v>
       </c>
       <c r="D428">
         <v>1</v>
@@ -6446,7 +6446,7 @@
         <v>2616</v>
       </c>
       <c r="C429">
-        <v>3.194652795791626</v>
+        <v>1.9608592987060549</v>
       </c>
       <c r="D429">
         <v>1</v>
@@ -6460,7 +6460,7 @@
         <v>1103</v>
       </c>
       <c r="C430">
-        <v>1.0910317897796631</v>
+        <v>0.71953606605529785</v>
       </c>
       <c r="D430">
         <v>1</v>
@@ -6488,7 +6488,7 @@
         <v>603</v>
       </c>
       <c r="C432">
-        <v>0.52704238891601563</v>
+        <v>0.37839961051940918</v>
       </c>
       <c r="D432">
         <v>1</v>
@@ -6502,7 +6502,7 @@
         <v>1594</v>
       </c>
       <c r="C433">
-        <v>1.675477027893066</v>
+        <v>1.04365086555481</v>
       </c>
       <c r="D433">
         <v>1</v>
@@ -6516,7 +6516,7 @@
         <v>4248</v>
       </c>
       <c r="C434">
-        <v>5.8224227428436279</v>
+        <v>3.8225762844085689</v>
       </c>
       <c r="D434">
         <v>1</v>
@@ -6530,7 +6530,7 @@
         <v>5553</v>
       </c>
       <c r="C435">
-        <v>8.4712409973144531</v>
+        <v>5.5754420757293701</v>
       </c>
       <c r="D435">
         <v>1</v>
@@ -6544,7 +6544,7 @@
         <v>2671</v>
       </c>
       <c r="C436">
-        <v>3.232398509979248</v>
+        <v>2.1184837818145752</v>
       </c>
       <c r="D436">
         <v>1</v>
@@ -6558,7 +6558,7 @@
         <v>928</v>
       </c>
       <c r="C437">
-        <v>0.96650457382202148</v>
+        <v>0.6197516918182373</v>
       </c>
       <c r="D437">
         <v>1</v>
@@ -6572,7 +6572,7 @@
         <v>1433</v>
       </c>
       <c r="C438">
-        <v>1.538988590240479</v>
+        <v>1.015662670135498</v>
       </c>
       <c r="D438">
         <v>1</v>
@@ -6586,7 +6586,7 @@
         <v>1195</v>
       </c>
       <c r="C439">
-        <v>1.165199279785156</v>
+        <v>0.79918479919433594</v>
       </c>
       <c r="D439">
         <v>1</v>
@@ -6600,7 +6600,7 @@
         <v>743</v>
       </c>
       <c r="C440">
-        <v>0.79859566688537598</v>
+        <v>0.45883750915527338</v>
       </c>
       <c r="D440">
         <v>1</v>
@@ -6614,7 +6614,7 @@
         <v>3515</v>
       </c>
       <c r="C441">
-        <v>4.169252872467041</v>
+        <v>2.9468321800231929</v>
       </c>
       <c r="D441">
         <v>1</v>
@@ -6624,14 +6624,14 @@
       <c r="A442">
         <v>440</v>
       </c>
-      <c r="B442">
-        <v>17797</v>
-      </c>
-      <c r="C442">
-        <v>48.308516502380371</v>
+      <c r="B442" t="s">
+        <v>4</v>
+      </c>
+      <c r="C442" t="s">
+        <v>4</v>
       </c>
       <c r="D442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
@@ -6642,7 +6642,7 @@
         <v>1151</v>
       </c>
       <c r="C443">
-        <v>0.9906008243560791</v>
+        <v>0.68086624145507813</v>
       </c>
       <c r="D443">
         <v>1</v>
@@ -6656,7 +6656,7 @@
         <v>2828</v>
       </c>
       <c r="C444">
-        <v>3.166841983795166</v>
+        <v>2.190999031066895</v>
       </c>
       <c r="D444">
         <v>1</v>
@@ -6670,7 +6670,7 @@
         <v>983</v>
       </c>
       <c r="C445">
-        <v>0.97738265991210938</v>
+        <v>0.6173090934753418</v>
       </c>
       <c r="D445">
         <v>1</v>
@@ -6684,7 +6684,7 @@
         <v>2007</v>
       </c>
       <c r="C446">
-        <v>2.3188784122467041</v>
+        <v>1.502017021179199</v>
       </c>
       <c r="D446">
         <v>1</v>
@@ -6698,7 +6698,7 @@
         <v>1192</v>
       </c>
       <c r="C447">
-        <v>1.2269237041473391</v>
+        <v>0.7654109001159668</v>
       </c>
       <c r="D447">
         <v>1</v>
@@ -6712,7 +6712,7 @@
         <v>3427</v>
       </c>
       <c r="C448">
-        <v>3.9285867214202881</v>
+        <v>2.7682523727416992</v>
       </c>
       <c r="D448">
         <v>1</v>
@@ -6726,7 +6726,7 @@
         <v>1286</v>
       </c>
       <c r="C449">
-        <v>1.2217550277709961</v>
+        <v>0.85765504837036133</v>
       </c>
       <c r="D449">
         <v>1</v>
@@ -6740,7 +6740,7 @@
         <v>877</v>
       </c>
       <c r="C450">
-        <v>0.81136035919189453</v>
+        <v>0.55635929107666016</v>
       </c>
       <c r="D450">
         <v>1</v>
@@ -6754,7 +6754,7 @@
         <v>3337</v>
       </c>
       <c r="C451">
-        <v>4.4203727245330811</v>
+        <v>2.6097702980041499</v>
       </c>
       <c r="D451">
         <v>1</v>
@@ -6768,7 +6768,7 @@
         <v>2635</v>
       </c>
       <c r="C452">
-        <v>2.9906034469604492</v>
+        <v>2.054903507232666</v>
       </c>
       <c r="D452">
         <v>1</v>
@@ -6782,7 +6782,7 @@
         <v>1155</v>
       </c>
       <c r="C453">
-        <v>1.224709272384644</v>
+        <v>0.7321927547454834</v>
       </c>
       <c r="D453">
         <v>1</v>
@@ -6796,7 +6796,7 @@
         <v>1688</v>
       </c>
       <c r="C454">
-        <v>1.7854688167572019</v>
+        <v>1.183361768722534</v>
       </c>
       <c r="D454">
         <v>1</v>
@@ -6810,7 +6810,7 @@
         <v>1282</v>
       </c>
       <c r="C455">
-        <v>1.3898229598999019</v>
+        <v>0.81039023399353027</v>
       </c>
       <c r="D455">
         <v>1</v>
@@ -6824,7 +6824,7 @@
         <v>1067</v>
       </c>
       <c r="C456">
-        <v>1.046985387802124</v>
+        <v>0.68138217926025391</v>
       </c>
       <c r="D456">
         <v>1</v>
@@ -6838,7 +6838,7 @@
         <v>1267</v>
       </c>
       <c r="C457">
-        <v>1.361575603485107</v>
+        <v>0.83169054985046387</v>
       </c>
       <c r="D457">
         <v>1</v>
@@ -6852,7 +6852,7 @@
         <v>1435</v>
       </c>
       <c r="C458">
-        <v>1.510508060455322</v>
+        <v>0.98394942283630371</v>
       </c>
       <c r="D458">
         <v>1</v>
@@ -6866,7 +6866,7 @@
         <v>3685</v>
       </c>
       <c r="C459">
-        <v>4.6716067790985107</v>
+        <v>3.2617006301879878</v>
       </c>
       <c r="D459">
         <v>1</v>
@@ -6880,7 +6880,7 @@
         <v>4848</v>
       </c>
       <c r="C460">
-        <v>6.4897575378417969</v>
+        <v>4.5112535953521729</v>
       </c>
       <c r="D460">
         <v>1</v>
@@ -6894,7 +6894,7 @@
         <v>2860</v>
       </c>
       <c r="C461">
-        <v>3.4439072608947749</v>
+        <v>2.2657487392425542</v>
       </c>
       <c r="D461">
         <v>1</v>
@@ -6908,7 +6908,7 @@
         <v>1709</v>
       </c>
       <c r="C462">
-        <v>1.8000988960266111</v>
+        <v>1.279654979705811</v>
       </c>
       <c r="D462">
         <v>1</v>
@@ -6922,7 +6922,7 @@
         <v>9571</v>
       </c>
       <c r="C463">
-        <v>18.029531955718991</v>
+        <v>13.317522048950201</v>
       </c>
       <c r="D463">
         <v>1</v>
@@ -6936,7 +6936,7 @@
         <v>1026</v>
       </c>
       <c r="C464">
-        <v>1.0166149139404299</v>
+        <v>0.66857290267944336</v>
       </c>
       <c r="D464">
         <v>1</v>
@@ -6950,7 +6950,7 @@
         <v>2759</v>
       </c>
       <c r="C465">
-        <v>3.3236124515533452</v>
+        <v>2.7322788238525391</v>
       </c>
       <c r="D465">
         <v>1</v>
@@ -6964,7 +6964,7 @@
         <v>1272</v>
       </c>
       <c r="C466">
-        <v>1.2436976432800291</v>
+        <v>0.85148930549621582</v>
       </c>
       <c r="D466">
         <v>1</v>
@@ -6978,7 +6978,7 @@
         <v>2864</v>
       </c>
       <c r="C467">
-        <v>3.4507167339324951</v>
+        <v>2.4500257968902588</v>
       </c>
       <c r="D467">
         <v>1</v>
@@ -6992,7 +6992,7 @@
         <v>2346</v>
       </c>
       <c r="C468">
-        <v>2.5535166263580318</v>
+        <v>1.817809581756592</v>
       </c>
       <c r="D468">
         <v>1</v>
@@ -7006,7 +7006,7 @@
         <v>2075</v>
       </c>
       <c r="C469">
-        <v>2.185491800308228</v>
+        <v>1.6648373603820801</v>
       </c>
       <c r="D469">
         <v>1</v>
@@ -7020,7 +7020,7 @@
         <v>5226</v>
       </c>
       <c r="C470">
-        <v>7.4904332160949707</v>
+        <v>5.3584790229797363</v>
       </c>
       <c r="D470">
         <v>1</v>
@@ -7034,7 +7034,7 @@
         <v>1329</v>
       </c>
       <c r="C471">
-        <v>1.372663259506226</v>
+        <v>0.93672585487365723</v>
       </c>
       <c r="D471">
         <v>1</v>
@@ -7048,7 +7048,7 @@
         <v>4758</v>
       </c>
       <c r="C472">
-        <v>6.2268838882446289</v>
+        <v>4.4916539192199707</v>
       </c>
       <c r="D472">
         <v>1</v>
@@ -7062,7 +7062,7 @@
         <v>2197</v>
       </c>
       <c r="C473">
-        <v>2.3211557865142818</v>
+        <v>1.6140091419219971</v>
       </c>
       <c r="D473">
         <v>1</v>
@@ -7076,7 +7076,7 @@
         <v>1331</v>
       </c>
       <c r="C474">
-        <v>1.4133129119873049</v>
+        <v>0.95042252540588379</v>
       </c>
       <c r="D474">
         <v>1</v>
@@ -7090,7 +7090,7 @@
         <v>2053</v>
       </c>
       <c r="C475">
-        <v>2.077778577804565</v>
+        <v>1.5897588729858401</v>
       </c>
       <c r="D475">
         <v>1</v>
@@ -7104,7 +7104,7 @@
         <v>5322</v>
       </c>
       <c r="C476">
-        <v>7.4117252826690674</v>
+        <v>5.1804094314575204</v>
       </c>
       <c r="D476">
         <v>1</v>
@@ -7118,7 +7118,7 @@
         <v>1111</v>
       </c>
       <c r="C477">
-        <v>1.090142965316772</v>
+        <v>0.6836087703704834</v>
       </c>
       <c r="D477">
         <v>1</v>
@@ -7132,7 +7132,7 @@
         <v>1374</v>
       </c>
       <c r="C478">
-        <v>1.431113481521606</v>
+        <v>0.91040849685668945</v>
       </c>
       <c r="D478">
         <v>1</v>
@@ -7146,7 +7146,7 @@
         <v>1541</v>
       </c>
       <c r="C479">
-        <v>1.4590549468994141</v>
+        <v>1.1652679443359379</v>
       </c>
       <c r="D479">
         <v>1</v>
@@ -7160,7 +7160,7 @@
         <v>1859</v>
       </c>
       <c r="C480">
-        <v>1.939343929290771</v>
+        <v>1.5063538551330571</v>
       </c>
       <c r="D480">
         <v>1</v>
@@ -7174,7 +7174,7 @@
         <v>2215</v>
       </c>
       <c r="C481">
-        <v>2.355080366134644</v>
+        <v>1.7742350101470949</v>
       </c>
       <c r="D481">
         <v>1</v>
@@ -7188,7 +7188,7 @@
         <v>885</v>
       </c>
       <c r="C482">
-        <v>0.79464936256408691</v>
+        <v>0.57698535919189453</v>
       </c>
       <c r="D482">
         <v>1</v>
@@ -7202,7 +7202,7 @@
         <v>12654</v>
       </c>
       <c r="C483">
-        <v>26.720214128494259</v>
+        <v>19.62280535697937</v>
       </c>
       <c r="D483">
         <v>1</v>
@@ -7216,7 +7216,7 @@
         <v>1262</v>
       </c>
       <c r="C484">
-        <v>1.244798898696899</v>
+        <v>0.8416745662689209</v>
       </c>
       <c r="D484">
         <v>1</v>
@@ -7230,7 +7230,7 @@
         <v>3764</v>
       </c>
       <c r="C485">
-        <v>4.5789382457733154</v>
+        <v>3.1788558959960942</v>
       </c>
       <c r="D485">
         <v>1</v>
@@ -7244,7 +7244,7 @@
         <v>1323</v>
       </c>
       <c r="C486">
-        <v>1.218652009963989</v>
+        <v>0.88942980766296387</v>
       </c>
       <c r="D486">
         <v>1</v>
@@ -7258,7 +7258,7 @@
         <v>2077</v>
       </c>
       <c r="C487">
-        <v>2.344710111618042</v>
+        <v>1.5325605869293211</v>
       </c>
       <c r="D487">
         <v>1</v>
@@ -7272,7 +7272,7 @@
         <v>11393</v>
       </c>
       <c r="C488">
-        <v>22.237091064453121</v>
+        <v>16.92791485786438</v>
       </c>
       <c r="D488">
         <v>1</v>
@@ -7286,7 +7286,7 @@
         <v>6148</v>
       </c>
       <c r="C489">
-        <v>9.0959527492523193</v>
+        <v>6.7066836357116699</v>
       </c>
       <c r="D489">
         <v>1</v>
@@ -7300,7 +7300,7 @@
         <v>4477</v>
       </c>
       <c r="C490">
-        <v>5.8547899723052979</v>
+        <v>4.252678394317627</v>
       </c>
       <c r="D490">
         <v>1</v>
@@ -7314,7 +7314,7 @@
         <v>1168</v>
       </c>
       <c r="C491">
-        <v>1.044073104858398</v>
+        <v>0.81811070442199707</v>
       </c>
       <c r="D491">
         <v>1</v>
@@ -7328,7 +7328,7 @@
         <v>1448</v>
       </c>
       <c r="C492">
-        <v>1.489753723144531</v>
+        <v>1.0181899070739751</v>
       </c>
       <c r="D492">
         <v>1</v>
@@ -7342,7 +7342,7 @@
         <v>806</v>
       </c>
       <c r="C493">
-        <v>0.71239399909973145</v>
+        <v>0.52507138252258301</v>
       </c>
       <c r="D493">
         <v>1</v>
@@ -7356,7 +7356,7 @@
         <v>1859</v>
       </c>
       <c r="C494">
-        <v>1.9467964172363279</v>
+        <v>1.288966178894043</v>
       </c>
       <c r="D494">
         <v>1</v>
@@ -7370,7 +7370,7 @@
         <v>3477</v>
       </c>
       <c r="C495">
-        <v>4.1989123821258536</v>
+        <v>2.9388866424560551</v>
       </c>
       <c r="D495">
         <v>1</v>
@@ -7384,7 +7384,7 @@
         <v>2133</v>
       </c>
       <c r="C496">
-        <v>2.4441158771514888</v>
+        <v>1.977929353713989</v>
       </c>
       <c r="D496">
         <v>1</v>
@@ -7398,7 +7398,7 @@
         <v>1985</v>
       </c>
       <c r="C497">
-        <v>2.291570663452148</v>
+        <v>1.6106774806976321</v>
       </c>
       <c r="D497">
         <v>1</v>
@@ -7412,7 +7412,7 @@
         <v>940</v>
       </c>
       <c r="C498">
-        <v>0.83294486999511719</v>
+        <v>0.6386871337890625</v>
       </c>
       <c r="D498">
         <v>1</v>
@@ -7426,7 +7426,7 @@
         <v>3517</v>
       </c>
       <c r="C499">
-        <v>4.1910672187805176</v>
+        <v>2.9181137084960942</v>
       </c>
       <c r="D499">
         <v>1</v>
@@ -7440,7 +7440,7 @@
         <v>5209</v>
       </c>
       <c r="C500">
-        <v>7.6665387153625488</v>
+        <v>5.2154669761657706</v>
       </c>
       <c r="D500">
         <v>1</v>
@@ -7454,7 +7454,7 @@
         <v>9236</v>
       </c>
       <c r="C501">
-        <v>16.875766515731812</v>
+        <v>12.26506233215332</v>
       </c>
       <c r="D501">
         <v>1</v>
